--- a/InputFiles/TC07_CDS_Filter_Prim_Diag_AdrenalCorticalCorcinoma.xlsx
+++ b/InputFiles/TC07_CDS_Filter_Prim_Diag_AdrenalCorticalCorcinoma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Sofia0629\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0717new\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C01F26-DDCF-404B-A721-A45088652BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4016F80-CADF-4A31-9B73-DA421B2AFD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE70FEB1-7084-4373-B676-EB3693A27A7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE70FEB1-7084-4373-B676-EB3693A27A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,21 +68,6 @@
     <t>TC07_CDS_Filter_Prim_Diag_AdrenalCorticalCorcinoma_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (diag:diagnosis)
-WHERE diag.primary_diagnosis in ['Adrenal Cortical Carcinoma']
-MATCH (diag)--&gt;(p:participant)--&gt;(s:study)
-MATCH (samp:sample)--&gt;(p)
-WITH p, s, collect(samp.sample_id) as samp
-RETURN
-    coalesce(p.participant_id,'') as `Participant ID`,
-    coalesce(s.study_name, '') as `Study Name`,
-    coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.gender,'') as `Gender`,
-    coalesce(apoc.text.join(samp, ','), '') as `Samples`
-ORDER BY `Participant ID`
-LIMIT 100</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 MATCH (diag:diagnosis)--&gt;(p)
 WHERE diag.primary_diagnosis in ['Adrenal Cortical Carcinoma']
@@ -124,6 +109,27 @@
     count(distinct p) AS Participants,
     count(distinct samp) AS Samples,
     count(distinct f) AS `Files`</t>
+  </si>
+  <si>
+    <t>MATCH (p:participant)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+WITH s, p, samp, f, g, diag
+WHERE diag.primary_diagnosis in ['Adrenal Cortical Carcinoma']
+WITH p
+OPTIONAL MATCH (p)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+WITH s, p, apoc.coll.sort(collect(distinct samp.sample_id)) as samp
+RETURN 
+coalesce(p.participant_id,'') as `Participant ID`,
+coalesce(s.study_name, '') as `Study Name`,
+coalesce(s.phs_accession,'') as `Accession`,
+coalesce(p.gender,'') as `Gender`,
+coalesce(apoc.text.join(samp, ','), '') as `Samples`
+ORDER BY p.participant_id
+LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -542,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -559,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
